--- a/inst/dates.xlsx
+++ b/inst/dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B78AE-6CE6-4E5B-A22A-147CD84FA7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A276454-BCAE-4E71-ACA8-A61658B7A6DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="24" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>num_visit</t>
-  </si>
-  <si>
-    <t>name_visit</t>
-  </si>
-  <si>
-    <t>standard_date</t>
-  </si>
-  <si>
-    <t>standard_name</t>
-  </si>
-  <si>
-    <t>check_equal</t>
-  </si>
-  <si>
-    <t>equal_date</t>
-  </si>
-  <si>
     <t>screening</t>
   </si>
   <si>
@@ -81,16 +63,34 @@
     <t>E3</t>
   </si>
   <si>
-    <t>minus</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
     <t>rand</t>
+  </si>
+  <si>
+    <t>VISITNUM</t>
+  </si>
+  <si>
+    <t>VISIT</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>STARTDAT</t>
+  </si>
+  <si>
+    <t>IS_EQUAL</t>
+  </si>
+  <si>
+    <t>EQUALDAT</t>
+  </si>
+  <si>
+    <t>STARTVISIT</t>
+  </si>
+  <si>
+    <t>VISITDY</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,39 +432,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -476,22 +476,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -503,24 +503,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -532,16 +532,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
